--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission-Admission_Master.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Admission-Admission_Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,10 @@
     <sheet name="TC3_Academic Calender" sheetId="7" r:id="rId4"/>
     <sheet name="TC4_ Eligibility Prameter" sheetId="4" r:id="rId5"/>
     <sheet name="TC5_ Document Template" sheetId="5" r:id="rId6"/>
-    <sheet name="Generic" sheetId="6" r:id="rId7"/>
+    <sheet name="TC6_Awards" sheetId="8" r:id="rId7"/>
+    <sheet name="TC7_Documents" sheetId="9" r:id="rId8"/>
+    <sheet name="TC8_Fee Type" sheetId="10" r:id="rId9"/>
+    <sheet name="Generic" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="439">
   <si>
     <t>Contents</t>
   </si>
@@ -1078,6 +1081,335 @@
     <t xml:space="preserve">user is able to perform save action and after making the final  save the newly created Document Template should be visible in list view </t>
   </si>
   <si>
+    <t>TC6_Awards</t>
+  </si>
+  <si>
+    <t>Awards is Master Screen, you can create different types of awards such as State, National, International Awards, etc.</t>
+  </si>
+  <si>
+    <t>url: wscdemo.eduleadonline.com</t>
+  </si>
+  <si>
+    <t>New Award</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Results </t>
+  </si>
+  <si>
+    <t>Admission &gt;  Masters &gt;  Awards</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Admission &gt;  Masters &gt;  Awards</t>
+  </si>
+  <si>
+    <t>Awards page should be open</t>
+  </si>
+  <si>
+    <t>View the Awards page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Awards page</t>
+  </si>
+  <si>
+    <t>Click Add Awards button</t>
+  </si>
+  <si>
+    <t>Add Awards button should be clickable and new Awards addition page should be open</t>
+  </si>
+  <si>
+    <t>Without fill any mandatory fields, click on save button</t>
+  </si>
+  <si>
+    <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields should be mentioned as * symbol.</t>
+  </si>
+  <si>
+    <t>fill only mandatory fields, click on save button</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully</t>
+  </si>
+  <si>
+    <t>click on Award Name text field, fill the name of Award</t>
+  </si>
+  <si>
+    <t>Award Name text field should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <t>click on Description text area, fill it</t>
+  </si>
+  <si>
+    <t>Description text area should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <t>After fill the mandatory &amp; required fields, click on save button</t>
+  </si>
+  <si>
+    <t>Page should be saved successfully. New Topic should be created</t>
+  </si>
+  <si>
+    <t>Roles And Permission</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Admin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read,Write,Create,Delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select, Read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Student </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <t>TC7_Documents</t>
+  </si>
+  <si>
+    <t>Document is Master Screen, you can create different documents name such as Aadhar Card, Income Certificate, Caste Certificates, etc. so that in student application form, applicants can attached their respective documents accordingly</t>
+  </si>
+  <si>
+    <t>New Documents</t>
+  </si>
+  <si>
+    <t>Admission &gt;  Masters &gt;  Documents</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Admission &gt;  Masters &gt;  Documents</t>
+  </si>
+  <si>
+    <t>Documents page should be open</t>
+  </si>
+  <si>
+    <t>View the Documents page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saved data should be shown on Documents page</t>
+  </si>
+  <si>
+    <t>Click Add Documents button</t>
+  </si>
+  <si>
+    <t>Add Documents button should be clickable and new Documents addition page should be open</t>
+  </si>
+  <si>
+    <t>click on Documents Name text field, fill the name of Documents</t>
+  </si>
+  <si>
+    <t>Documents Name text field should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Login as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Student Applicant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and check the access privileges</t>
+    </r>
+  </si>
+  <si>
+    <t>TC8_Fee Type</t>
+  </si>
+  <si>
+    <t>Fee Type is a Master Screen where we can create different fee types such as Semester Fees, Hostel Fees, Mess Fees, etc.</t>
+  </si>
+  <si>
+    <t>New Fee Type</t>
+  </si>
+  <si>
+    <t>Admission &gt;  Masters &gt;  Fee Type</t>
+  </si>
+  <si>
+    <t>Click on Home &gt; Admission &gt;  Masters &gt;  Fee Type</t>
+  </si>
+  <si>
+    <t>Fee Type page should be open</t>
+  </si>
+  <si>
+    <t>View the Fee Type page</t>
+  </si>
+  <si>
+    <t>Click Add Fee Type button</t>
+  </si>
+  <si>
+    <t>Add Fee Type button should be clickable and new Fee Type addition page should be open</t>
+  </si>
+  <si>
+    <t>click on Type text field, fill the Type of fee</t>
+  </si>
+  <si>
+    <t>Type Name text field should be clickable. user should able to fill it</t>
+  </si>
+  <si>
+    <t>click on Is Hostel checkbox</t>
+  </si>
+  <si>
+    <t>Is Hostel checkbox should be clickable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should have all the following accesses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Read</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Generic </t>
   </si>
   <si>
@@ -1540,14 +1872,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,6 +1911,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1597,13 +1943,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1759,18 +2098,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +2125,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,16 +2557,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2224,120 +2572,123 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2384,6 +2735,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2408,7 +2804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2422,7 +2818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2476,13 +2872,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2491,8 +2887,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2565,7 +2961,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -2616,10 +3012,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,13 +3035,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2659,7 +3055,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2687,7 +3083,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2701,7 +3097,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
@@ -2717,23 +3113,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3062,81 +3458,1244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.0857142857143" style="151" customWidth="1"/>
-    <col min="2" max="2" width="26.2857142857143" style="151" customWidth="1"/>
-    <col min="3" max="5" width="21.5428571428571" style="151" customWidth="1"/>
-    <col min="6" max="6" width="22.1809523809524" style="151" customWidth="1"/>
-    <col min="7" max="7" width="19.7238095238095" style="151" customWidth="1"/>
-    <col min="8" max="8" width="15" style="151" customWidth="1"/>
-    <col min="9" max="9" width="20" style="151" customWidth="1"/>
-    <col min="10" max="10" width="14.6285714285714" style="151" customWidth="1"/>
-    <col min="11" max="11" width="12.9047619047619" style="151" customWidth="1"/>
-    <col min="12" max="12" width="15.7238095238095" style="151" customWidth="1"/>
-    <col min="13" max="13" width="14.4571428571429" style="151" customWidth="1"/>
-    <col min="14" max="14" width="20.2666666666667" style="151" customWidth="1"/>
-    <col min="15" max="15" width="29.9047619047619" style="151" customWidth="1"/>
-    <col min="16" max="16384" width="8.72380952380952" style="151"/>
+    <col min="1" max="1" width="19.0857142857143" style="166" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" style="166" customWidth="1"/>
+    <col min="3" max="5" width="21.5428571428571" style="166" customWidth="1"/>
+    <col min="6" max="6" width="22.1809523809524" style="166" customWidth="1"/>
+    <col min="7" max="7" width="19.7238095238095" style="166" customWidth="1"/>
+    <col min="8" max="8" width="15" style="166" customWidth="1"/>
+    <col min="9" max="9" width="20" style="166" customWidth="1"/>
+    <col min="10" max="10" width="14.6285714285714" style="166" customWidth="1"/>
+    <col min="11" max="11" width="12.9047619047619" style="166" customWidth="1"/>
+    <col min="12" max="12" width="15.7238095238095" style="166" customWidth="1"/>
+    <col min="13" max="13" width="14.4571428571429" style="166" customWidth="1"/>
+    <col min="14" max="14" width="20.2666666666667" style="166" customWidth="1"/>
+    <col min="15" max="15" width="29.9047619047619" style="166" customWidth="1"/>
+    <col min="16" max="16384" width="8.72380952380952" style="166"/>
   </cols>
   <sheetData>
-    <row r="2" s="151" customFormat="1" ht="21" spans="1:7">
-      <c r="A2" s="152" t="s">
+    <row r="2" s="166" customFormat="1" ht="21" spans="1:7">
+      <c r="A2" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-    </row>
-    <row r="4" s="151" customFormat="1" ht="150" spans="1:14">
-      <c r="A4" s="153" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+    </row>
+    <row r="4" s="166" customFormat="1" ht="150" spans="1:14">
+      <c r="A4" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-    </row>
-    <row r="5" s="151" customFormat="1" spans="2:14">
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+    </row>
+    <row r="5" s="166" customFormat="1" spans="2:14">
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.2761904761905" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.72380952380952" style="1"/>
+    <col min="6" max="6" width="36.1809523809524" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.72380952380952" style="1"/>
+    <col min="8" max="8" width="15.8190476190476" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.72380952380952" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="3:8">
+      <c r="C3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="14">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="14">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:7">
+      <c r="A21" s="14">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="14">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A24" s="14">
+        <v>10</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A26" s="14">
+        <v>11</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="14">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:7">
+      <c r="A28" s="14">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="14">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:7">
+      <c r="A30" s="14">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:7">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="120" spans="1:7">
+      <c r="A32" s="19">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A33" s="19">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A34" s="19">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:7">
+      <c r="A35" s="19">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A36" s="19">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:7">
+      <c r="A37" s="19">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:7">
+      <c r="A38" s="19">
+        <v>22</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:7">
+      <c r="A39" s="19">
+        <v>23</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:7">
+      <c r="A40" s="19">
+        <v>24</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A41" s="19">
+        <v>25</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:7">
+      <c r="A42" s="19">
+        <v>26</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:7">
+      <c r="A43" s="19">
+        <v>27</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:7">
+      <c r="A44" s="19">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:7">
+      <c r="A45" s="19">
+        <v>29</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:7">
+      <c r="A46" s="19">
+        <v>30</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:7">
+      <c r="A47" s="19">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:7">
+      <c r="A48" s="19">
+        <v>32</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A49" s="19">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:7">
+      <c r="A50" s="19">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:7">
+      <c r="A51" s="19">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:7">
+      <c r="A52" s="19">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:7">
+      <c r="A53" s="19">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:7">
+      <c r="A54" s="19">
+        <v>38</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:7">
+      <c r="A55" s="19"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:7">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:7">
+      <c r="A57" s="19">
+        <v>39</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:7">
+      <c r="A58" s="19"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:7">
+      <c r="A59" s="19"/>
+      <c r="B59" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:7">
+      <c r="A60" s="19">
+        <v>40</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:7">
+      <c r="A61" s="19">
+        <v>41</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:7">
+      <c r="A62" s="19">
+        <v>42</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:7">
+      <c r="A63" s="19">
+        <v>43</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:7">
+      <c r="A64" s="19">
+        <v>44</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:7">
+      <c r="A65" s="19">
+        <v>45</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A66" s="19">
+        <v>46</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:7">
+      <c r="A67" s="19">
+        <v>47</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="165" spans="1:7">
+      <c r="A68" s="19">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:7">
+      <c r="A69" s="19">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:7">
+      <c r="A70" s="19">
+        <v>50</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:7">
+      <c r="A71" s="19">
+        <v>51</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:7">
+      <c r="A72" s="19">
+        <v>52</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:7">
+      <c r="A73" s="19">
+        <v>53</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:7">
+      <c r="A74" s="19">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:7">
+      <c r="A75" s="19">
+        <v>55</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:7">
+      <c r="A76" s="19">
+        <v>56</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:7">
+      <c r="A77" s="19">
+        <v>57</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:7">
+      <c r="A78" s="19"/>
+      <c r="B78" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" s="1" customFormat="1" spans="1:7">
+      <c r="A79" s="19">
+        <v>58</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" s="1" customFormat="1" spans="1:7">
+      <c r="A80" s="19">
+        <v>59</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E80" s="23"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" s="1" customFormat="1" spans="1:7">
+      <c r="A81" s="19">
+        <v>60</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E81" s="23"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3154,179 +4713,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="24" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="24" customWidth="1"/>
-    <col min="3" max="3" width="60" style="24" customWidth="1"/>
-    <col min="4" max="4" width="54.8571428571429" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25" style="24" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="18.7142857142857" style="39" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="39" customWidth="1"/>
+    <col min="3" max="3" width="60" style="39" customWidth="1"/>
+    <col min="4" max="4" width="54.8571428571429" style="39" customWidth="1"/>
+    <col min="5" max="5" width="25" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" spans="1:7">
-      <c r="A1" s="115" t="s">
+    <row r="1" s="39" customFormat="1" spans="1:7">
+      <c r="A1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:7">
-      <c r="A2" s="115" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" s="39" customFormat="1" spans="1:7">
+      <c r="A2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:6">
-      <c r="A6" s="73" t="s">
+    <row r="6" s="39" customFormat="1" spans="1:6">
+      <c r="A6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A7" s="46">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="123" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="24" customFormat="1" spans="1:6">
-      <c r="A8" s="46">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" s="39" customFormat="1" spans="1:6">
+      <c r="A8" s="61">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" s="24" customFormat="1" spans="1:4">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="3:7">
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="73" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" s="39" customFormat="1" spans="1:4">
+      <c r="A9" s="158"/>
+      <c r="B9" s="159"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" s="39" customFormat="1" spans="3:7">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" s="39" customFormat="1" spans="1:7">
+      <c r="A11" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="74">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" s="39" customFormat="1" spans="1:7">
+      <c r="A12" s="89">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="56">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" s="39" customFormat="1" spans="1:7">
+      <c r="A13" s="71">
         <v>2</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" s="24" customFormat="1" spans="1:2">
-      <c r="A14" s="56">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" s="39" customFormat="1" spans="1:2">
+      <c r="A14" s="71">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:2">
-      <c r="A15" s="56">
+    <row r="15" s="39" customFormat="1" spans="1:2">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="24" customFormat="1" spans="1:2">
-      <c r="A16" s="56">
+    <row r="16" s="39" customFormat="1" spans="1:2">
+      <c r="A16" s="71">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:2">
-      <c r="A17" s="56">
+    <row r="17" s="39" customFormat="1" spans="1:2">
+      <c r="A17" s="71">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="24" customFormat="1" spans="1:2">
-      <c r="A18" s="56">
+    <row r="18" s="39" customFormat="1" spans="1:2">
+      <c r="A18" s="71">
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3334,169 +4893,169 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-    </row>
-    <row r="20" s="24" customFormat="1" spans="7:7">
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:7">
-      <c r="A21" s="145" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+    </row>
+    <row r="20" s="39" customFormat="1" spans="7:7">
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" s="39" customFormat="1" spans="1:7">
+      <c r="A21" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="115" t="s">
+      <c r="E21" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:7">
-      <c r="A22" s="42">
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" s="39" customFormat="1" spans="1:7">
+      <c r="A22" s="57">
         <v>1</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:6">
-      <c r="A23" s="46">
+      <c r="F22" s="92"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" s="39" customFormat="1" spans="1:6">
+      <c r="A23" s="61">
         <v>2</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" s="24" customFormat="1" spans="1:6">
-      <c r="A24" s="49">
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" s="39" customFormat="1" spans="1:6">
+      <c r="A24" s="64">
         <v>3</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" s="24" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A25" s="78"/>
-      <c r="B25" s="97" t="s">
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" s="39" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A25" s="93"/>
+      <c r="B25" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="46">
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="61">
         <v>4</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="146">
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="161">
         <v>5</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="138" t="s">
+      <c r="D27" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="147"/>
-    </row>
-    <row r="28" s="24" customFormat="1" spans="1:6">
-      <c r="A28" s="148"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-    </row>
-    <row r="29" s="24" customFormat="1" spans="1:4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="29"/>
-    </row>
-    <row r="30" s="24" customFormat="1" spans="1:6">
-      <c r="A30" s="59" t="s">
+      <c r="F27" s="162"/>
+    </row>
+    <row r="28" s="39" customFormat="1" spans="1:6">
+      <c r="A28" s="163"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+    </row>
+    <row r="29" s="39" customFormat="1" spans="1:4">
+      <c r="A29" s="44"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" s="39" customFormat="1" spans="1:6">
+      <c r="A30" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-    </row>
-    <row r="31" s="24" customFormat="1" ht="45" spans="1:6">
-      <c r="A31" s="61">
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+    </row>
+    <row r="31" s="39" customFormat="1" ht="45" spans="1:6">
+      <c r="A31" s="76">
         <v>6</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="126" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3505,16 +5064,16 @@
       <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="61">
+    <row r="32" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="76">
         <v>7</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="126" t="s">
         <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3523,16 +5082,16 @@
       <c r="D32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="91" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="61">
+    <row r="33" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="76">
         <v>9</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3541,12 +5100,12 @@
       <c r="D33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="91" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" s="24" customFormat="1" spans="1:6">
+    <row r="34" s="39" customFormat="1" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3554,172 +5113,172 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" s="24" customFormat="1" spans="1:6">
-      <c r="A35" s="63" t="s">
+    <row r="35" s="39" customFormat="1" spans="1:6">
+      <c r="A35" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="65">
+    <row r="36" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="80">
         <v>10</v>
       </c>
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="150" t="s">
+      <c r="D36" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="141"/>
-    </row>
-    <row r="37" s="24" customFormat="1" ht="45" spans="1:6">
+      <c r="F36" s="156"/>
+    </row>
+    <row r="37" s="39" customFormat="1" ht="45" spans="1:6">
       <c r="A37" s="19"/>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="38" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A38" s="19"/>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="39" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A39" s="19">
         <v>11</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" s="24" customFormat="1" ht="45" spans="1:6">
+    <row r="40" s="39" customFormat="1" ht="45" spans="1:6">
       <c r="A40" s="19"/>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="70" t="s">
+      <c r="D40" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="41" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A41" s="19"/>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="42" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A42" s="19">
         <v>12</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" s="24" customFormat="1" ht="45" spans="1:6">
+    <row r="43" s="39" customFormat="1" ht="45" spans="1:6">
       <c r="A43" s="19"/>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" ht="30" spans="1:6">
       <c r="A44" s="19"/>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="3"/>
@@ -3743,750 +5302,750 @@
   <sheetPr/>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="24" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="24" customWidth="1"/>
-    <col min="3" max="3" width="60" style="24" customWidth="1"/>
-    <col min="4" max="4" width="67" style="24" customWidth="1"/>
-    <col min="5" max="5" width="31.2857142857143" style="24" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="18.7142857142857" style="39" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="39" customWidth="1"/>
+    <col min="3" max="3" width="60" style="39" customWidth="1"/>
+    <col min="4" max="4" width="67" style="39" customWidth="1"/>
+    <col min="5" max="5" width="31.2857142857143" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" spans="1:7">
-      <c r="A1" s="115" t="s">
+    <row r="1" s="39" customFormat="1" spans="1:7">
+      <c r="A1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:7">
-      <c r="A2" s="115" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" s="39" customFormat="1" spans="1:7">
+      <c r="A2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:6">
-      <c r="A5" s="73" t="s">
+    <row r="5" s="39" customFormat="1" spans="1:6">
+      <c r="A5" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A6" s="46">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A6" s="61">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" s="24" customFormat="1" spans="1:6">
-      <c r="A7" s="46">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" s="39" customFormat="1" spans="1:6">
+      <c r="A7" s="61">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="24" customFormat="1" spans="1:2">
-      <c r="A8" s="46">
+      <c r="C7" s="46"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" s="39" customFormat="1" spans="1:2">
+      <c r="A8" s="61">
         <v>3</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:7">
-      <c r="A9" s="46">
+    <row r="9" s="39" customFormat="1" spans="1:7">
+      <c r="A9" s="61">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="46">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" s="39" customFormat="1" spans="1:7">
+      <c r="A10" s="61">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="46">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" s="39" customFormat="1" spans="1:7">
+      <c r="A11" s="61">
         <v>6</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="46"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="3:7">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" s="24" customFormat="1" spans="1:7">
-      <c r="A14" s="30" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" s="39" customFormat="1" spans="1:7">
+      <c r="A12" s="61"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" s="39" customFormat="1" spans="3:7">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" s="39" customFormat="1" spans="1:7">
+      <c r="A14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" s="24" customFormat="1" spans="1:7">
-      <c r="A15" s="74">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" s="39" customFormat="1" spans="1:7">
+      <c r="A15" s="89">
         <v>1</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" s="24" customFormat="1" spans="1:7">
-      <c r="A16" s="56">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" s="39" customFormat="1" spans="1:7">
+      <c r="A16" s="71">
         <v>2</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" s="24" customFormat="1" spans="1:2">
-      <c r="A17" s="56">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" s="39" customFormat="1" spans="1:2">
+      <c r="A17" s="71">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="24" customFormat="1" spans="1:2">
-      <c r="A18" s="56">
+    <row r="18" s="39" customFormat="1" spans="1:2">
+      <c r="A18" s="71">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:2">
-      <c r="A19" s="56">
+    <row r="19" s="39" customFormat="1" spans="1:2">
+      <c r="A19" s="71">
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" s="24" customFormat="1" spans="1:2">
-      <c r="A20" s="56">
+    <row r="20" s="39" customFormat="1" spans="1:2">
+      <c r="A20" s="71">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" s="24" customFormat="1" spans="1:2">
-      <c r="A21" s="56">
+    <row r="21" s="39" customFormat="1" spans="1:2">
+      <c r="A21" s="71">
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" s="24" customFormat="1" spans="7:7">
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:7">
-      <c r="A23" s="119" t="s">
+    <row r="22" s="39" customFormat="1" spans="7:7">
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" s="39" customFormat="1" spans="1:7">
+      <c r="A23" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="119" t="s">
+      <c r="B23" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="119" t="s">
+      <c r="D23" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" s="24" customFormat="1" spans="1:7">
-      <c r="A24" s="42">
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" s="39" customFormat="1" spans="1:7">
+      <c r="A24" s="57">
         <v>1</v>
       </c>
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:6">
-      <c r="A25" s="46">
+      <c r="F24" s="92"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" s="39" customFormat="1" spans="1:6">
+      <c r="A25" s="61">
         <v>2</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:6">
-      <c r="A26" s="49">
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" s="39" customFormat="1" spans="1:6">
+      <c r="A26" s="64">
         <v>3</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="78"/>
-      <c r="B27" s="97" t="s">
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="93"/>
+      <c r="B27" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="80">
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="95">
         <v>4</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="121"/>
-      <c r="B29" s="33" t="s">
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="136"/>
+      <c r="B29" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" s="24" customFormat="1" spans="1:6">
-      <c r="A30" s="46">
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" s="39" customFormat="1" spans="1:6">
+      <c r="A30" s="61">
         <v>5</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="46"/>
-      <c r="B31" s="81" t="s">
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="61"/>
+      <c r="B31" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="76" t="s">
+      <c r="E31" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="35"/>
-    </row>
-    <row r="32" s="24" customFormat="1" spans="1:6">
-      <c r="A32" s="121">
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" s="39" customFormat="1" spans="1:6">
+      <c r="A32" s="136">
         <v>6</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="123"/>
-    </row>
-    <row r="33" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="46"/>
-      <c r="B33" s="81" t="s">
+      <c r="F32" s="138"/>
+    </row>
+    <row r="33" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="61"/>
+      <c r="B33" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="87" t="s">
+      <c r="D33" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" s="24" customFormat="1" spans="1:4">
-      <c r="A34" s="124"/>
-      <c r="B34" s="125"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-    </row>
-    <row r="35" s="24" customFormat="1" spans="1:4">
-      <c r="A35" s="124"/>
-      <c r="B35" s="127" t="s">
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" s="39" customFormat="1" spans="1:4">
+      <c r="A34" s="139"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+    </row>
+    <row r="35" s="39" customFormat="1" spans="1:4">
+      <c r="A35" s="139"/>
+      <c r="B35" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-    </row>
-    <row r="36" s="24" customFormat="1" spans="1:6">
-      <c r="A36" s="46"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="46">
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+    </row>
+    <row r="36" s="39" customFormat="1" spans="1:6">
+      <c r="A36" s="61"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="61">
         <v>7</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="B37" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="131" t="s">
+      <c r="C37" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="46">
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="61">
         <v>8</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="131" t="s">
+      <c r="D38" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A39" s="46">
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="61">
         <v>9</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="131" t="s">
+      <c r="D39" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A40" s="132"/>
-      <c r="B40" s="130" t="s">
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="147"/>
+      <c r="B40" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A41" s="133">
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="148">
         <v>10</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="131" t="s">
+      <c r="C41" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D41" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="134"/>
-      <c r="B42" s="130" t="s">
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="149"/>
+      <c r="B42" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="46">
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A43" s="61">
         <v>11</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="146" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="35"/>
-    </row>
-    <row r="44" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="46">
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="61">
         <v>12</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="87" t="s">
+      <c r="D44" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="35"/>
-    </row>
-    <row r="45" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="46">
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="61">
         <v>13</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="46">
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A46" s="61">
         <v>14</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="131" t="s">
+      <c r="C46" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="131" t="s">
+      <c r="D46" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="46">
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="61">
         <v>15</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="76" t="s">
+      <c r="E47" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="135">
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A48" s="150">
         <v>16</v>
       </c>
-      <c r="B48" s="131" t="s">
+      <c r="B48" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="131" t="s">
+      <c r="D48" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" s="24" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="135">
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" s="39" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="150">
         <v>17</v>
       </c>
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="131" t="s">
+      <c r="C49" s="146" t="s">
         <v>161</v>
       </c>
-      <c r="D49" s="131" t="s">
+      <c r="D49" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" s="24" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="135">
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" s="39" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="150">
         <v>18</v>
       </c>
-      <c r="B50" s="130" t="s">
+      <c r="B50" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="131" t="s">
+      <c r="D50" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="76" t="s">
+      <c r="E50" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="135">
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="150">
         <v>19</v>
       </c>
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="131" t="s">
+      <c r="D51" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="76" t="s">
+      <c r="E51" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" s="24" customFormat="1" spans="1:6">
-      <c r="A52" s="136"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-    </row>
-    <row r="53" s="24" customFormat="1" spans="1:6">
-      <c r="A53" s="59" t="s">
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" s="39" customFormat="1" spans="1:6">
+      <c r="A52" s="151"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+    </row>
+    <row r="53" s="39" customFormat="1" spans="1:6">
+      <c r="A53" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-    </row>
-    <row r="54" s="24" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A54" s="61">
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+    </row>
+    <row r="54" s="39" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A54" s="76">
         <v>22</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="126" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -4495,12 +6054,12 @@
       <c r="D54" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="76" t="s">
+      <c r="E54" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" s="24" customFormat="1" spans="1:6">
+    <row r="55" s="39" customFormat="1" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4508,120 +6067,120 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" s="24" customFormat="1" spans="1:6">
-      <c r="A56" s="139" t="s">
+    <row r="56" s="39" customFormat="1" spans="1:6">
+      <c r="A56" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E56" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A57" s="65">
+    <row r="57" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A57" s="80">
         <v>23</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="67" t="s">
+      <c r="D57" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="76" t="s">
+      <c r="E57" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="141"/>
-    </row>
-    <row r="58" s="24" customFormat="1" ht="45" spans="1:6">
+      <c r="F57" s="156"/>
+    </row>
+    <row r="58" s="39" customFormat="1" ht="45" spans="1:6">
       <c r="A58" s="19"/>
       <c r="B58" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="76" t="s">
+      <c r="E58" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="59" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A59" s="19"/>
       <c r="B59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" s="24" customFormat="1" spans="1:6">
-      <c r="A60" s="142"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="114"/>
+    <row r="60" s="39" customFormat="1" spans="1:6">
+      <c r="A60" s="157"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" s="24" customFormat="1" spans="1:6">
-      <c r="A61" s="142"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="114"/>
+    <row r="61" s="39" customFormat="1" spans="1:6">
+      <c r="A61" s="157"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" s="24" customFormat="1" spans="1:6">
-      <c r="A62" s="142"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="114"/>
+    <row r="62" s="39" customFormat="1" spans="1:6">
+      <c r="A62" s="157"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" s="24" customFormat="1" spans="1:6">
-      <c r="A63" s="142"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="114"/>
+    <row r="63" s="39" customFormat="1" spans="1:6">
+      <c r="A63" s="157"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" s="24" customFormat="1" spans="1:6">
-      <c r="A64" s="142"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="114"/>
+    <row r="64" s="39" customFormat="1" spans="1:6">
+      <c r="A64" s="157"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" s="24" customFormat="1" spans="1:6">
-      <c r="A65" s="142"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="114"/>
+    <row r="65" s="39" customFormat="1" spans="1:6">
+      <c r="A65" s="157"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4650,316 +6209,316 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714" style="85" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="85" customWidth="1"/>
-    <col min="3" max="3" width="63.8571428571429" style="85" customWidth="1"/>
-    <col min="4" max="4" width="67" style="85" customWidth="1"/>
-    <col min="5" max="5" width="31.2857142857143" style="85" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="85" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="85"/>
+    <col min="1" max="1" width="11.4285714285714" style="100" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="100" customWidth="1"/>
+    <col min="3" max="3" width="63.8571428571429" style="100" customWidth="1"/>
+    <col min="4" max="4" width="67" style="100" customWidth="1"/>
+    <col min="5" max="5" width="31.2857142857143" style="100" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="100" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" s="85" customFormat="1" spans="1:7">
-      <c r="A1" s="86" t="s">
+    <row r="1" s="100" customFormat="1" spans="1:7">
+      <c r="A1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" s="85" customFormat="1" spans="1:7">
-      <c r="A2" s="86" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" s="100" customFormat="1" spans="1:7">
+      <c r="A2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" s="85" customFormat="1" spans="1:2">
-      <c r="A3" s="86" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" s="100" customFormat="1" spans="1:2">
+      <c r="A3" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="100" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="85" customFormat="1" spans="1:6">
-      <c r="A5" s="88" t="s">
+    <row r="5" s="100" customFormat="1" spans="1:6">
+      <c r="A5" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" s="85" customFormat="1" spans="1:6">
-      <c r="A6" s="51"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="85" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" s="100" customFormat="1" spans="1:6">
+      <c r="A6" s="66"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" s="85" customFormat="1" spans="1:6">
-      <c r="A7" s="51"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" s="85" customFormat="1" spans="3:7">
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" s="85" customFormat="1" spans="1:7">
-      <c r="A9" s="90" t="s">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" s="100" customFormat="1" spans="1:6">
+      <c r="A7" s="66"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" s="100" customFormat="1" spans="3:7">
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" s="100" customFormat="1" spans="1:7">
+      <c r="A9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" s="85" customFormat="1" spans="2:7">
-      <c r="B10" s="85" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" s="100" customFormat="1" spans="2:7">
+      <c r="B10" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" s="85" customFormat="1" spans="7:7">
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" s="85" customFormat="1" spans="7:7">
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" s="85" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="91" t="s">
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" s="100" customFormat="1" spans="7:7">
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" s="100" customFormat="1" spans="7:7">
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" s="100" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" s="85" customFormat="1" spans="1:7">
-      <c r="A14" s="27">
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" s="100" customFormat="1" spans="1:7">
+      <c r="A14" s="42">
         <v>1</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="102" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" s="85" customFormat="1" spans="1:6">
-      <c r="A15" s="28">
+      <c r="F14" s="109"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" s="100" customFormat="1" spans="1:6">
+      <c r="A15" s="43">
         <v>2</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" s="85" customFormat="1" spans="1:6">
-      <c r="A16" s="96">
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" s="100" customFormat="1" spans="1:6">
+      <c r="A16" s="111">
         <v>3</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" s="85" customFormat="1" spans="1:6">
-      <c r="A17" s="98">
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" s="100" customFormat="1" spans="1:6">
+      <c r="A17" s="113">
         <v>4</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" s="85" customFormat="1" ht="30" spans="1:6">
-      <c r="A18" s="96">
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" s="100" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="111">
         <v>5</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" s="85" customFormat="1" spans="1:6">
-      <c r="A19" s="28">
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" s="100" customFormat="1" spans="1:6">
+      <c r="A19" s="43">
         <v>6</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="99"/>
-    </row>
-    <row r="20" s="85" customFormat="1" ht="30" spans="1:5">
-      <c r="A20" s="100">
+      <c r="F19" s="114"/>
+    </row>
+    <row r="20" s="100" customFormat="1" ht="30" spans="1:5">
+      <c r="A20" s="115">
         <v>7</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="108" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" s="85" customFormat="1" spans="1:6">
-      <c r="A21" s="102">
+    <row r="21" s="100" customFormat="1" spans="1:6">
+      <c r="A21" s="117">
         <v>8</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="118" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="103" t="s">
+      <c r="C21" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" s="85" customFormat="1" spans="1:4">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" s="85" customFormat="1" spans="1:4">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" s="85" customFormat="1" spans="1:6">
-      <c r="A24" s="108" t="s">
+      <c r="F21" s="120"/>
+    </row>
+    <row r="22" s="100" customFormat="1" spans="1:4">
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" s="100" customFormat="1" spans="1:4">
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" s="100" customFormat="1" spans="1:6">
+      <c r="A24" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-    </row>
-    <row r="25" s="85" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A25" s="110">
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+    </row>
+    <row r="25" s="100" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A25" s="125">
         <v>22</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="126" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4968,66 +6527,66 @@
       <c r="D25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="108" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" s="85" customFormat="1" spans="1:6">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-    </row>
-    <row r="27" s="85" customFormat="1" spans="1:6">
-      <c r="A27" s="113"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-    </row>
-    <row r="28" s="85" customFormat="1" spans="1:6">
-      <c r="A28" s="113"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-    </row>
-    <row r="29" s="85" customFormat="1" spans="1:6">
-      <c r="A29" s="113"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-    </row>
-    <row r="30" s="85" customFormat="1" spans="1:6">
-      <c r="A30" s="113"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-    </row>
-    <row r="31" s="85" customFormat="1" spans="1:6">
-      <c r="A31" s="113"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-    </row>
-    <row r="32" s="85" customFormat="1" spans="1:6">
-      <c r="A32" s="113"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
+    <row r="26" s="100" customFormat="1" spans="1:6">
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+    </row>
+    <row r="27" s="100" customFormat="1" spans="1:6">
+      <c r="A27" s="128"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+    </row>
+    <row r="28" s="100" customFormat="1" spans="1:6">
+      <c r="A28" s="128"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+    </row>
+    <row r="29" s="100" customFormat="1" spans="1:6">
+      <c r="A29" s="128"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+    </row>
+    <row r="30" s="100" customFormat="1" spans="1:6">
+      <c r="A30" s="128"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+    </row>
+    <row r="31" s="100" customFormat="1" spans="1:6">
+      <c r="A31" s="128"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+    </row>
+    <row r="32" s="100" customFormat="1" spans="1:6">
+      <c r="A32" s="128"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5052,383 +6611,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="24" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="24" customWidth="1"/>
-    <col min="3" max="3" width="60" style="24" customWidth="1"/>
-    <col min="4" max="4" width="57.4285714285714" style="24" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="24" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="18.7142857142857" style="39" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="39" customWidth="1"/>
+    <col min="3" max="3" width="60" style="39" customWidth="1"/>
+    <col min="4" max="4" width="57.4285714285714" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.5714285714286" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="39" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" s="39" customFormat="1" spans="1:7">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:6">
-      <c r="A5" s="72" t="s">
+    <row r="5" s="39" customFormat="1" spans="1:6">
+      <c r="A5" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A6" s="46">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A6" s="61">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" s="24" customFormat="1" spans="1:6">
-      <c r="A7" s="46">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" s="39" customFormat="1" spans="1:6">
+      <c r="A7" s="61">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="24" customFormat="1" spans="3:7">
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" s="24" customFormat="1" spans="3:7">
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" s="39" customFormat="1" spans="3:7">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" s="39" customFormat="1" spans="3:7">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" s="39" customFormat="1" spans="1:7">
+      <c r="A10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="74">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" s="39" customFormat="1" spans="1:7">
+      <c r="A11" s="89">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="56">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" s="39" customFormat="1" spans="1:7">
+      <c r="A12" s="71">
         <v>2</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:2">
-      <c r="A13" s="56">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" s="39" customFormat="1" spans="1:2">
+      <c r="A13" s="71">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="24" customFormat="1" spans="1:2">
-      <c r="A14" s="56">
+    <row r="14" s="39" customFormat="1" spans="1:2">
+      <c r="A14" s="71">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="24" customFormat="1" spans="1:2">
-      <c r="A15" s="56">
+    <row r="15" s="39" customFormat="1" spans="1:2">
+      <c r="A15" s="71">
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" s="24" customFormat="1" spans="1:2">
-      <c r="A16" s="56">
+    <row r="16" s="39" customFormat="1" spans="1:2">
+      <c r="A16" s="71">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:2">
-      <c r="A17" s="56">
+    <row r="17" s="39" customFormat="1" spans="1:2">
+      <c r="A17" s="71">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" s="24" customFormat="1" spans="7:7">
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" s="24" customFormat="1" spans="1:7">
-      <c r="A19" s="40" t="s">
+    <row r="18" s="39" customFormat="1" spans="7:7">
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" s="39" customFormat="1" spans="1:7">
+      <c r="A19" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" s="24" customFormat="1" spans="1:7">
-      <c r="A20" s="42">
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" s="39" customFormat="1" spans="1:7">
+      <c r="A20" s="57">
         <v>1</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:6">
-      <c r="A21" s="46">
+      <c r="F20" s="92"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" s="39" customFormat="1" spans="1:6">
+      <c r="A21" s="61">
         <v>2</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="76" t="s">
+      <c r="E21" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:6">
-      <c r="A22" s="49">
+      <c r="F21" s="44"/>
+    </row>
+    <row r="22" s="39" customFormat="1" spans="1:6">
+      <c r="A22" s="64">
         <v>3</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A23" s="78"/>
-      <c r="B23" s="50" t="s">
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="93"/>
+      <c r="B23" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="79"/>
-    </row>
-    <row r="24" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="80">
+      <c r="F23" s="94"/>
+    </row>
+    <row r="24" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="95">
         <v>4</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A25" s="80">
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="95">
         <v>5</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" s="24" customFormat="1" spans="1:6">
-      <c r="A27" s="59" t="s">
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" s="39" customFormat="1" spans="1:4">
+      <c r="A26" s="44"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="44"/>
+    </row>
+    <row r="27" s="39" customFormat="1" spans="1:6">
+      <c r="A27" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-    </row>
-    <row r="28" s="24" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A28" s="61">
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+    </row>
+    <row r="28" s="39" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A28" s="76">
         <v>6</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="76" t="s">
+      <c r="E28" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="61">
+    <row r="29" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="76">
         <v>7</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="91" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" s="24" customFormat="1" spans="1:6">
-      <c r="A30" s="61">
+    <row r="30" s="39" customFormat="1" spans="1:6">
+      <c r="A30" s="76">
         <v>8</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="76"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" s="24" customFormat="1" spans="1:6">
+    <row r="31" s="39" customFormat="1" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5436,7 +6995,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" s="24" customFormat="1" spans="1:6">
+    <row r="32" s="39" customFormat="1" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5444,122 +7003,122 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" s="24" customFormat="1" spans="1:6">
-      <c r="A33" s="63" t="s">
+    <row r="33" s="39" customFormat="1" spans="1:6">
+      <c r="A33" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="65">
+    <row r="34" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="80">
         <v>9</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="65"/>
-    </row>
-    <row r="35" s="24" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="F34" s="80"/>
+    </row>
+    <row r="35" s="39" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A35" s="19"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" s="24" customFormat="1" ht="21" customHeight="1" spans="1:6">
+    <row r="36" s="39" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A36" s="19"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" s="24" customFormat="1" ht="30" spans="1:6">
+    <row r="37" s="39" customFormat="1" ht="30" spans="1:6">
       <c r="A37" s="19">
         <v>10</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="19"/>
     </row>
     <row r="38" ht="35" customHeight="1" spans="1:6">
       <c r="A38" s="19"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="19"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:6">
       <c r="A39" s="19"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="19"/>
@@ -5568,48 +7127,48 @@
       <c r="A40" s="19">
         <v>11</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="76" t="s">
+      <c r="E40" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="19"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:6">
       <c r="A41" s="19"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="19"/>
     </row>
     <row r="42" ht="30" spans="1:6">
       <c r="A42" s="19"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="91" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="19"/>
@@ -5640,208 +7199,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="24" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="24" customWidth="1"/>
-    <col min="3" max="3" width="62.5714285714286" style="24" customWidth="1"/>
-    <col min="4" max="4" width="60.2857142857143" style="24" customWidth="1"/>
-    <col min="5" max="5" width="23" style="24" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="24" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="18.7142857142857" style="39" customWidth="1"/>
+    <col min="2" max="2" width="87.8571428571429" style="39" customWidth="1"/>
+    <col min="3" max="3" width="62.5714285714286" style="39" customWidth="1"/>
+    <col min="4" max="4" width="60.2857142857143" style="39" customWidth="1"/>
+    <col min="5" max="5" width="23" style="39" customWidth="1"/>
+    <col min="6" max="6" width="41.1428571428571" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="39" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" s="24" customFormat="1" spans="1:7">
-      <c r="A2" s="25" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" s="39" customFormat="1" spans="1:7">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:6">
-      <c r="A5" s="25" t="s">
+    <row r="5" s="39" customFormat="1" spans="1:6">
+      <c r="A5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A6" s="26">
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A6" s="41">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" s="24" customFormat="1" spans="1:6">
-      <c r="A7" s="26">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" s="39" customFormat="1" spans="1:6">
+      <c r="A7" s="41">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" s="24" customFormat="1" spans="1:2">
-      <c r="A8" s="26">
+      <c r="C7" s="46"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" s="39" customFormat="1" spans="1:2">
+      <c r="A8" s="41">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" s="24" customFormat="1" spans="1:7">
-      <c r="A9" s="26">
+    <row r="9" s="39" customFormat="1" spans="1:7">
+      <c r="A9" s="41">
         <v>4</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" s="24" customFormat="1" spans="1:7">
-      <c r="A10" s="26">
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" s="39" customFormat="1" spans="1:7">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="3:7">
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" s="24" customFormat="1" spans="1:7">
-      <c r="A12" s="25" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" s="39" customFormat="1" spans="3:7">
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" s="39" customFormat="1" spans="1:7">
+      <c r="A12" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="24" customFormat="1" spans="1:7">
-      <c r="A13" s="36">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" s="39" customFormat="1" spans="1:7">
+      <c r="A13" s="51">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" s="24" customFormat="1" spans="1:7">
-      <c r="A14" s="38">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" s="39" customFormat="1" spans="1:7">
+      <c r="A14" s="53">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" s="24" customFormat="1" spans="1:2">
-      <c r="A15" s="38">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" s="39" customFormat="1" spans="1:2">
+      <c r="A15" s="53">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="24" customFormat="1" spans="1:2">
-      <c r="A16" s="38">
+    <row r="16" s="39" customFormat="1" spans="1:2">
+      <c r="A16" s="53">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" s="24" customFormat="1" spans="1:2">
-      <c r="A17" s="38">
+    <row r="17" s="39" customFormat="1" spans="1:2">
+      <c r="A17" s="53">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" s="24" customFormat="1" spans="1:2">
-      <c r="A18" s="38">
+    <row r="18" s="39" customFormat="1" spans="1:2">
+      <c r="A18" s="53">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" s="24" customFormat="1" spans="1:2">
-      <c r="A19" s="38">
+    <row r="19" s="39" customFormat="1" spans="1:2">
+      <c r="A19" s="53">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -5849,285 +7408,285 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="7:7">
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="40" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+    </row>
+    <row r="21" s="39" customFormat="1" spans="7:7">
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" s="39" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:7">
-      <c r="A23" s="42">
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" s="39" customFormat="1" spans="1:7">
+      <c r="A23" s="57">
         <v>1</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" s="24" customFormat="1" spans="1:6">
-      <c r="A24" s="46">
+      <c r="F23" s="60"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" s="39" customFormat="1" spans="1:6">
+      <c r="A24" s="61">
         <v>2</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:6">
-      <c r="A25" s="49">
+      <c r="F24" s="63"/>
+    </row>
+    <row r="25" s="39" customFormat="1" spans="1:6">
+      <c r="A25" s="64">
         <v>3</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="48"/>
-    </row>
-    <row r="26" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="49">
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="64">
         <v>4</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="53"/>
-    </row>
-    <row r="27" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55" t="s">
+      <c r="F26" s="68"/>
+    </row>
+    <row r="27" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="48"/>
-    </row>
-    <row r="28" s="24" customFormat="1" spans="1:6">
-      <c r="A28" s="49">
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" s="39" customFormat="1" spans="1:6">
+      <c r="A28" s="64">
         <v>6</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="48"/>
-    </row>
-    <row r="29" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="49">
+      <c r="F28" s="63"/>
+    </row>
+    <row r="29" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="64">
         <v>7</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="56"/>
-    </row>
-    <row r="30" s="24" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A30" s="49">
+      <c r="F29" s="71"/>
+    </row>
+    <row r="30" s="39" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A30" s="64">
         <v>8</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="72" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" s="24" customFormat="1" spans="1:6">
-      <c r="A31" s="49"/>
-      <c r="B31" s="58" t="s">
+    <row r="31" s="39" customFormat="1" spans="1:6">
+      <c r="A31" s="64"/>
+      <c r="B31" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="44" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" s="24" customFormat="1" spans="1:6">
-      <c r="A32" s="49">
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" s="39" customFormat="1" spans="1:6">
+      <c r="A32" s="64">
         <v>9</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="49">
+      <c r="F32" s="71"/>
+    </row>
+    <row r="33" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="64">
         <v>10</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="49">
+      <c r="F33" s="71"/>
+    </row>
+    <row r="34" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="64">
         <v>11</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="56"/>
-    </row>
-    <row r="35" s="24" customFormat="1" ht="45" spans="1:6">
-      <c r="A35" s="49">
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" s="39" customFormat="1" ht="45" spans="1:6">
+      <c r="A35" s="64">
         <v>12</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" s="24" customFormat="1" spans="1:6">
-      <c r="A36" s="28"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-    </row>
-    <row r="37" s="24" customFormat="1" spans="1:6">
-      <c r="A37" s="59" t="s">
+      <c r="F35" s="71"/>
+    </row>
+    <row r="36" s="39" customFormat="1" spans="1:6">
+      <c r="A36" s="43"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+    </row>
+    <row r="37" s="39" customFormat="1" spans="1:6">
+      <c r="A37" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-    </row>
-    <row r="38" s="24" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A38" s="61">
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+    </row>
+    <row r="38" s="39" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A38" s="76">
         <v>13</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="77" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -6136,12 +7695,12 @@
       <c r="D38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="59" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" s="24" customFormat="1" spans="1:6">
+    <row r="39" s="39" customFormat="1" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6149,7 +7708,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" s="24" customFormat="1" spans="1:6">
+    <row r="40" s="39" customFormat="1" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -6157,75 +7716,75 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" s="24" customFormat="1" spans="1:6">
-      <c r="A41" s="63" t="s">
+    <row r="41" s="39" customFormat="1" spans="1:6">
+      <c r="A41" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="64" t="s">
+      <c r="F41" s="79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" s="24" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="65">
+    <row r="42" s="39" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="80">
         <v>14</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="68"/>
-    </row>
-    <row r="43" s="24" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="F42" s="83"/>
+    </row>
+    <row r="43" s="39" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A43" s="19"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="44" t="s">
+      <c r="E43" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="71"/>
-    </row>
-    <row r="44" s="24" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="F43" s="86"/>
+    </row>
+    <row r="44" s="39" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A44" s="19"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="71"/>
+      <c r="F44" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6242,1160 +7801,1024 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.2761904761905" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.72380952380952" style="1"/>
-    <col min="6" max="6" width="36.1809523809524" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.72380952380952" style="1"/>
-    <col min="8" max="8" width="15.8190476190476" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.72380952380952" style="1"/>
+    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="24" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42857142857143" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="24" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" s="24" customFormat="1" spans="1:7">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="3:8">
-      <c r="C3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:7">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" s="24" customFormat="1" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" s="24" customFormat="1" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" s="24" customFormat="1" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" s="24" customFormat="1" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" s="24" customFormat="1" spans="1:7">
+      <c r="A12" s="31">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" s="24" customFormat="1" spans="1:7">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="31">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:7">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" s="24" customFormat="1" spans="1:7">
+      <c r="A16" s="31">
+        <v>6</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="1:7">
+      <c r="A17" s="31">
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:7">
+      <c r="A18" s="31">
+        <v>8</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="1:1">
+      <c r="A19" s="34"/>
+    </row>
+    <row r="20" s="24" customFormat="1" spans="1:1">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="34"/>
+      <c r="B22" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="34"/>
+      <c r="B24" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:1">
+      <c r="A25" s="34"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:1">
+      <c r="A26" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="24" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42857142857143" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="24" customFormat="1" ht="74" customHeight="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" s="24" customFormat="1" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:7">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
-      <c r="A5" s="3">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:8">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" s="24" customFormat="1" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" s="24" customFormat="1" spans="1:7">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" s="24" customFormat="1" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="E9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" s="24" customFormat="1" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" s="24" customFormat="1" spans="1:7">
+      <c r="A12" s="31">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="31">
+        <v>4</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:7">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" s="24" customFormat="1" spans="1:7">
+      <c r="A16" s="31">
+        <v>6</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="1:7">
+      <c r="A17" s="31">
+        <v>7</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:7">
+      <c r="A18" s="31">
+        <v>8</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="1:1">
+      <c r="A19" s="34"/>
+    </row>
+    <row r="20" s="24" customFormat="1" spans="1:1">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="34"/>
+      <c r="B22" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="34"/>
+      <c r="B24" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:1">
+      <c r="A25" s="34"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:1">
+      <c r="A26" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.4285714285714" style="24" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="24" customWidth="1"/>
+    <col min="3" max="3" width="77.4285714285714" style="24" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.42857142857143" style="24" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="24" customFormat="1" ht="74" customHeight="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" s="24" customFormat="1" spans="1:7">
+      <c r="A2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" s="24" customFormat="1" spans="1:7">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" s="24" customFormat="1" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" s="24" customFormat="1" spans="1:7">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" s="24" customFormat="1" spans="1:7">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" s="24" customFormat="1" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" s="24" customFormat="1" spans="1:7">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="14">
+      <c r="D9" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" s="24" customFormat="1" spans="1:7">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="14">
+      <c r="B11" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" s="24" customFormat="1" spans="1:7">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="14">
+      <c r="B12" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A13" s="31">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="14">
+      <c r="B13" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B14" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16" t="s">
+      <c r="C14" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" s="24" customFormat="1" spans="1:7">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="14">
+      <c r="C15" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" s="24" customFormat="1" spans="1:7">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="14">
+      <c r="B16" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" s="24" customFormat="1" spans="1:7">
+      <c r="A17" s="31">
         <v>7</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16" t="s">
+      <c r="B17" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:7">
-      <c r="A21" s="14">
+      <c r="C17" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" s="24" customFormat="1" spans="1:7">
+      <c r="A18" s="31">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7" t="s">
+      <c r="B18" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="1:7">
+      <c r="A19" s="31">
+        <v>9</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="14">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C19" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" s="24" customFormat="1" spans="1:1">
+      <c r="A20" s="34"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:1">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:5">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A24" s="14">
-        <v>10</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="E22" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7" t="s">
+    </row>
+    <row r="23" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11" t="s">
+      <c r="C23" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A26" s="14">
-        <v>11</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="14">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="30" spans="1:5">
+      <c r="A24" s="34"/>
+      <c r="B24" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="14">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:7">
-      <c r="A29" s="14">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="14">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:7">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A32" s="19">
-        <v>16</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A33" s="19">
-        <v>17</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="19">
-        <v>18</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:7">
-      <c r="A35" s="19">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A36" s="19">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:7">
-      <c r="A37" s="19">
-        <v>21</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:7">
-      <c r="A38" s="19">
-        <v>22</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:7">
-      <c r="A39" s="19">
-        <v>23</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:7">
-      <c r="A40" s="19">
-        <v>24</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A41" s="19">
-        <v>25</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:7">
-      <c r="A42" s="19">
-        <v>26</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C24" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:7">
-      <c r="A43" s="19">
-        <v>27</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:7">
-      <c r="A44" s="19">
-        <v>28</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:7">
-      <c r="A45" s="19">
-        <v>29</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:7">
-      <c r="A46" s="19">
-        <v>30</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:7">
-      <c r="A47" s="19">
-        <v>31</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:7">
-      <c r="A48" s="19">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A49" s="19">
-        <v>33</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:7">
-      <c r="A50" s="19">
-        <v>34</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:7">
-      <c r="A51" s="19">
-        <v>35</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:7">
-      <c r="A52" s="19">
-        <v>36</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:7">
-      <c r="A53" s="19">
-        <v>37</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:7">
-      <c r="A54" s="19">
-        <v>38</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:7">
-      <c r="A55" s="19"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:7">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:7">
-      <c r="A57" s="19">
-        <v>39</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:7">
-      <c r="A58" s="19"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:7">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:7">
-      <c r="A60" s="19">
-        <v>40</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:7">
-      <c r="A61" s="19">
-        <v>41</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:7">
-      <c r="A62" s="19">
-        <v>42</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:7">
-      <c r="A63" s="19">
-        <v>43</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:7">
-      <c r="A64" s="19">
-        <v>44</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:7">
-      <c r="A65" s="19">
-        <v>45</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A66" s="19">
-        <v>46</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:7">
-      <c r="A67" s="19">
-        <v>47</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="165" spans="1:7">
-      <c r="A68" s="19">
-        <v>48</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:7">
-      <c r="A69" s="19">
-        <v>49</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:7">
-      <c r="A70" s="19">
-        <v>50</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:7">
-      <c r="A71" s="19">
-        <v>51</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:7">
-      <c r="A72" s="19">
-        <v>52</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:7">
-      <c r="A73" s="19">
-        <v>53</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:7">
-      <c r="A74" s="19">
-        <v>54</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:7">
-      <c r="A75" s="19">
-        <v>55</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:7">
-      <c r="A76" s="19">
-        <v>56</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:7">
-      <c r="A77" s="19">
-        <v>57</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:7">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" s="1" customFormat="1" spans="1:7">
-      <c r="A79" s="19">
-        <v>58</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" s="1" customFormat="1" spans="1:7">
-      <c r="A80" s="19">
-        <v>59</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="23"/>
-    </row>
-    <row r="81" s="1" customFormat="1" spans="1:7">
-      <c r="A81" s="19">
-        <v>60</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="23"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:1">
+      <c r="A25" s="34"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:1">
+      <c r="A26" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="3">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
